--- a/biology/Botanique/Chrysosplenium_alternifolium/Chrysosplenium_alternifolium.xlsx
+++ b/biology/Botanique/Chrysosplenium_alternifolium/Chrysosplenium_alternifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Dorine à feuilles alternes, ou Cresson doré ou encore Cresson de rocher (Chrysosplenium alternifolium), est une espèce de plante herbacée vivace appartenant au genre Chrysosplenium et à la famille des Saxifragaceae[1].
-Bernadette Soubirous en 1858 a affirmé que la Vierge Marie, lors d'une période de Carême, lui a désigné l'herbe amère poussant dans la grotte pour qu'elle la mange, cette herbe aurait été du cresson amer ou de la dorine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Dorine à feuilles alternes, ou Cresson doré ou encore Cresson de rocher (Chrysosplenium alternifolium), est une espèce de plante herbacée vivace appartenant au genre Chrysosplenium et à la famille des Saxifragaceae.
+Bernadette Soubirous en 1858 a affirmé que la Vierge Marie, lors d'une période de Carême, lui a désigné l'herbe amère poussant dans la grotte pour qu'elle la mange, cette herbe aurait été du cresson amer ou de la dorine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante aux tiges triangulaires peut atteindre une hauteur de 15 à 20 centimètres, elle tire son nom de « dorée » à cause de la couleur de ses feuilles supérieures.
 </t>
@@ -543,7 +557,9 @@
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dorine à feuilles alternes est présente en Belgique, en France et dans d'autres pays d'Europe ; en France, elle est protégée dans les régions Île-de-France, Picardie, Provence-Alpes-Côte d'Azur, Nord-Pas-de-Calais, Limousin et dans la région Centre-Val de Loire.
 On peut la trouver dans des sous-bois humides, souvent à proximité de ruisseaux, de fossés, de rochers suintants...
@@ -575,7 +591,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa pollinisation est le plus souvent assurée par des insectes, dont certaines mouches ou de petits scarabées.
 </t>
@@ -606,9 +624,11 @@
           <t>Pharmacopée traditionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude ethnobotanique de Françoise et Grégoire Nicollier (1984) sur les usages des plantes dans la vie quotidienne à Bagnes, Cette plante (dont les noms patois étaient foie sin tœudora (signifiant « feuille sans couture ») ou foie de tàle, était autrefois prescrite (ou auto-prescrite) comme vulnéraire, hémostatique et cicatrisante[3]. Pour ce dernier usage, on apposait sur la plaie la face de la feuille qui est contre le sol et non sa face supérieure)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude ethnobotanique de Françoise et Grégoire Nicollier (1984) sur les usages des plantes dans la vie quotidienne à Bagnes, Cette plante (dont les noms patois étaient foie sin tœudora (signifiant « feuille sans couture ») ou foie de tàle, était autrefois prescrite (ou auto-prescrite) comme vulnéraire, hémostatique et cicatrisante. Pour ce dernier usage, on apposait sur la plaie la face de la feuille qui est contre le sol et non sa face supérieure).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Menaces, statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dorine à feuilles alternes est une plante en voie de régression sur une grande partie de son aire de répartition.
 </t>
